--- a/data/naver-search.xlsx
+++ b/data/naver-search.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0yeon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35f199c170268207/바탕 화면/myCoding/python/winter-bigdata/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E45C83-6D5C-474C-8AE8-D2BA1CF2F3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{46E45C83-6D5C-474C-8AE8-D2BA1CF2F3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3FDF9D9-DA54-4420-9D2E-4D07029D76D1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6360" yWindow="1440" windowWidth="15120" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -25,602 +25,603 @@
     <t>url</t>
   </si>
   <si>
+    <t>넷플릭스</t>
+  </si>
+  <si>
+    <t>42.16106</t>
+  </si>
+  <si>
+    <t>3.77997</t>
+  </si>
+  <si>
+    <t>3.05921</t>
+  </si>
+  <si>
+    <t>2.82081</t>
+  </si>
+  <si>
+    <t>2.18849</t>
+  </si>
+  <si>
+    <t>1.64557</t>
+  </si>
+  <si>
+    <t>1.99136</t>
+  </si>
+  <si>
+    <t>1.95048</t>
+  </si>
+  <si>
+    <t>2.08728</t>
+  </si>
+  <si>
+    <t>2.33887</t>
+  </si>
+  <si>
+    <t>2.03419</t>
+  </si>
+  <si>
+    <t>2.68728</t>
+  </si>
+  <si>
+    <t>2.92321</t>
+  </si>
+  <si>
+    <t>2.57514</t>
+  </si>
+  <si>
+    <t>3.45152</t>
+  </si>
+  <si>
+    <t>2.81118</t>
+  </si>
+  <si>
+    <t>4.75351</t>
+  </si>
+  <si>
+    <t>10.24836</t>
+  </si>
+  <si>
+    <t>12.39415</t>
+  </si>
+  <si>
+    <t>9.90307</t>
+  </si>
+  <si>
+    <t>5.97245</t>
+  </si>
+  <si>
+    <t>6.14769</t>
+  </si>
+  <si>
+    <t>6.25997</t>
+  </si>
+  <si>
+    <t>6.91489</t>
+  </si>
+  <si>
+    <t>8.17212</t>
+  </si>
+  <si>
+    <t>7.57329</t>
+  </si>
+  <si>
+    <t>8.424</t>
+  </si>
+  <si>
+    <t>11.19318</t>
+  </si>
+  <si>
+    <t>22.13724</t>
+  </si>
+  <si>
+    <t>12.69396</t>
+  </si>
+  <si>
+    <t>16.15873</t>
+  </si>
+  <si>
+    <t>18.40721</t>
+  </si>
+  <si>
+    <t>19.11614</t>
+  </si>
+  <si>
+    <t>19.4972</t>
+  </si>
+  <si>
+    <t>20.74272</t>
+  </si>
+  <si>
+    <t>26.80208</t>
+  </si>
+  <si>
+    <t>41.76565</t>
+  </si>
+  <si>
+    <t>47.02649</t>
+  </si>
+  <si>
+    <t>36.04977</t>
+  </si>
+  <si>
+    <t>31.94502</t>
+  </si>
+  <si>
+    <t>31.2664</t>
+  </si>
+  <si>
+    <t>29.93347</t>
+  </si>
+  <si>
+    <t>41.55113</t>
+  </si>
+  <si>
+    <t>35.05689</t>
+  </si>
+  <si>
+    <t>31.358</t>
+  </si>
+  <si>
+    <t>31.72223</t>
+  </si>
+  <si>
+    <t>34.74769</t>
+  </si>
+  <si>
+    <t>47.07923</t>
+  </si>
+  <si>
+    <t>50.99459</t>
+  </si>
+  <si>
+    <t>60.3909</t>
+  </si>
+  <si>
+    <t>99.79548</t>
+  </si>
+  <si>
+    <t>83.26177</t>
+  </si>
+  <si>
+    <t>70.92608</t>
+  </si>
+  <si>
+    <t>54.54469</t>
+  </si>
+  <si>
+    <t>61.18641</t>
+  </si>
+  <si>
+    <t>73.31021</t>
+  </si>
+  <si>
+    <t>67.25178</t>
+  </si>
+  <si>
+    <t>54.33011</t>
+  </si>
+  <si>
+    <t>49.91464</t>
+  </si>
+  <si>
+    <t>83.03605</t>
+  </si>
+  <si>
+    <t>85.09579</t>
+  </si>
+  <si>
+    <t>67.85975</t>
+  </si>
+  <si>
+    <t>57.69374</t>
+  </si>
+  <si>
+    <t>48.98237</t>
+  </si>
+  <si>
+    <t>47.5627</t>
+  </si>
+  <si>
+    <t>45.14847</t>
+  </si>
+  <si>
+    <t>58.76942</t>
+  </si>
+  <si>
+    <t>57.95644</t>
+  </si>
+  <si>
+    <t>80.42154</t>
+  </si>
+  <si>
+    <t>76.37202</t>
+  </si>
+  <si>
+    <t>63.31513</t>
+  </si>
+  <si>
+    <t>63.49271</t>
+  </si>
+  <si>
+    <t>65.26242</t>
+  </si>
+  <si>
+    <t>57.2405</t>
+  </si>
+  <si>
+    <t>58.03908</t>
+  </si>
+  <si>
+    <t>46.49476</t>
+  </si>
+  <si>
+    <t>41.536</t>
+  </si>
+  <si>
+    <t>38.54373</t>
+  </si>
+  <si>
+    <t>54.71275</t>
+  </si>
+  <si>
+    <t>48.73359</t>
+  </si>
+  <si>
+    <t>41.73199</t>
+  </si>
+  <si>
+    <t>36.22982</t>
+  </si>
+  <si>
+    <t>34.75213</t>
+  </si>
+  <si>
+    <t>47.85031</t>
+  </si>
+  <si>
+    <t>56.07607</t>
+  </si>
+  <si>
+    <t>41.66362</t>
+  </si>
+  <si>
+    <t>51.94262</t>
+  </si>
+  <si>
+    <t>37.98517</t>
+  </si>
+  <si>
+    <t>39.89049</t>
+  </si>
+  <si>
+    <t>39.82302</t>
+  </si>
+  <si>
+    <t>45.06939</t>
+  </si>
+  <si>
+    <t>44.32429</t>
+  </si>
+  <si>
+    <t>35.0487</t>
+  </si>
+  <si>
+    <t>33.79428</t>
+  </si>
+  <si>
+    <t>48.32308</t>
+  </si>
+  <si>
+    <t>46.78305</t>
+  </si>
+  <si>
+    <t>40.49809</t>
+  </si>
+  <si>
+    <t>영화관</t>
+  </si>
+  <si>
+    <t>51.40832</t>
+  </si>
+  <si>
+    <t>52.21984</t>
+  </si>
+  <si>
+    <t>32.95458</t>
+  </si>
+  <si>
+    <t>31.48413</t>
+  </si>
+  <si>
+    <t>45.31272</t>
+  </si>
+  <si>
+    <t>45.35393</t>
+  </si>
+  <si>
+    <t>67.79444</t>
+  </si>
+  <si>
+    <t>69.20098</t>
+  </si>
+  <si>
+    <t>43.36822</t>
+  </si>
+  <si>
+    <t>38.80216</t>
+  </si>
+  <si>
+    <t>35.31579</t>
+  </si>
+  <si>
+    <t>53.71559</t>
+  </si>
+  <si>
+    <t>59.23393</t>
+  </si>
+  <si>
+    <t>42.63694</t>
+  </si>
+  <si>
+    <t>38.3565</t>
+  </si>
+  <si>
+    <t>33.00758</t>
+  </si>
+  <si>
+    <t>48.44737</t>
+  </si>
+  <si>
+    <t>39.911</t>
+  </si>
+  <si>
+    <t>58.61311</t>
+  </si>
+  <si>
+    <t>68.55695</t>
+  </si>
+  <si>
+    <t>42.92052</t>
+  </si>
+  <si>
+    <t>66.21011</t>
+  </si>
+  <si>
+    <t>46.36167</t>
+  </si>
+  <si>
+    <t>82.39855</t>
+  </si>
+  <si>
+    <t>70.63843</t>
+  </si>
+  <si>
+    <t>55.99913</t>
+  </si>
+  <si>
+    <t>49.11793</t>
+  </si>
+  <si>
+    <t>55.18415</t>
+  </si>
+  <si>
+    <t>47.9596</t>
+  </si>
+  <si>
+    <t>46.24699</t>
+  </si>
+  <si>
+    <t>69.50485</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>58.77065</t>
+  </si>
+  <si>
+    <t>43.34985</t>
+  </si>
+  <si>
+    <t>58.53529</t>
+  </si>
+  <si>
+    <t>69.5662</t>
+  </si>
+  <si>
+    <t>57.25339</t>
+  </si>
+  <si>
+    <t>67.78901</t>
+  </si>
+  <si>
+    <t>39.06566</t>
+  </si>
+  <si>
+    <t>60.04588</t>
+  </si>
+  <si>
+    <t>50.16555</t>
+  </si>
+  <si>
+    <t>61.79662</t>
+  </si>
+  <si>
+    <t>68.7511</t>
+  </si>
+  <si>
+    <t>59.5846</t>
+  </si>
+  <si>
+    <t>39.12443</t>
+  </si>
+  <si>
+    <t>39.17747</t>
+  </si>
+  <si>
+    <t>51.35699</t>
+  </si>
+  <si>
+    <t>61.24149</t>
+  </si>
+  <si>
+    <t>40.87996</t>
+  </si>
+  <si>
+    <t>22.18082</t>
+  </si>
+  <si>
+    <t>12.48398</t>
+  </si>
+  <si>
+    <t>10.08081</t>
+  </si>
+  <si>
+    <t>10.86023</t>
+  </si>
+  <si>
+    <t>14.98588</t>
+  </si>
+  <si>
+    <t>19.91719</t>
+  </si>
+  <si>
+    <t>26.2634</t>
+  </si>
+  <si>
+    <t>14.59944</t>
+  </si>
+  <si>
+    <t>16.93336</t>
+  </si>
+  <si>
+    <t>12.37464</t>
+  </si>
+  <si>
+    <t>8.91179</t>
+  </si>
+  <si>
+    <t>11.52832</t>
+  </si>
+  <si>
+    <t>16.52684</t>
+  </si>
+  <si>
+    <t>15.86127</t>
+  </si>
+  <si>
+    <t>13.95289</t>
+  </si>
+  <si>
+    <t>18.09592</t>
+  </si>
+  <si>
+    <t>18.31141</t>
+  </si>
+  <si>
+    <t>23.99013</t>
+  </si>
+  <si>
+    <t>21.68778</t>
+  </si>
+  <si>
+    <t>17.52853</t>
+  </si>
+  <si>
+    <t>16.66914</t>
+  </si>
+  <si>
+    <t>23.11613</t>
+  </si>
+  <si>
+    <t>32.15167</t>
+  </si>
+  <si>
+    <t>20.36705</t>
+  </si>
+  <si>
+    <t>13.49514</t>
+  </si>
+  <si>
+    <t>12.37626</t>
+  </si>
+  <si>
+    <t>17.78738</t>
+  </si>
+  <si>
+    <t>40.05777</t>
+  </si>
+  <si>
+    <t>39.23982</t>
+  </si>
+  <si>
+    <t>49.04306</t>
+  </si>
+  <si>
+    <t>41.28024</t>
+  </si>
+  <si>
+    <t>27.84054</t>
+  </si>
+  <si>
+    <t>23.78873</t>
+  </si>
+  <si>
+    <t>24.89832</t>
+  </si>
+  <si>
+    <t>62.04802</t>
+  </si>
+  <si>
+    <t>44.36352</t>
+  </si>
+  <si>
+    <t>32.38744</t>
+  </si>
+  <si>
+    <t>33.12239</t>
+  </si>
+  <si>
+    <t>28.70845</t>
+  </si>
+  <si>
+    <t>41.19771</t>
+  </si>
+  <si>
+    <t>40.44679</t>
+  </si>
+  <si>
+    <t>47.6165</t>
+  </si>
+  <si>
+    <t>43.40772</t>
+  </si>
+  <si>
+    <t>24.639</t>
+  </si>
+  <si>
+    <t>22.59522</t>
+  </si>
+  <si>
+    <t>29.82534</t>
+  </si>
+  <si>
+    <t>44.56617</t>
+  </si>
+  <si>
+    <t>26.15865</t>
+  </si>
+  <si>
     <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_35e1ac5ecdb3dc8833f443f371320fc0</t>
-  </si>
-  <si>
-    <t>넷플릭스</t>
-  </si>
-  <si>
-    <t>42.16106</t>
-  </si>
-  <si>
-    <t>3.77997</t>
-  </si>
-  <si>
-    <t>3.05921</t>
-  </si>
-  <si>
-    <t>2.82081</t>
-  </si>
-  <si>
-    <t>2.18849</t>
-  </si>
-  <si>
-    <t>1.64557</t>
-  </si>
-  <si>
-    <t>1.99136</t>
-  </si>
-  <si>
-    <t>1.95048</t>
-  </si>
-  <si>
-    <t>2.08728</t>
-  </si>
-  <si>
-    <t>2.33887</t>
-  </si>
-  <si>
-    <t>2.03419</t>
-  </si>
-  <si>
-    <t>2.68728</t>
-  </si>
-  <si>
-    <t>2.92321</t>
-  </si>
-  <si>
-    <t>2.57514</t>
-  </si>
-  <si>
-    <t>3.45152</t>
-  </si>
-  <si>
-    <t>2.81118</t>
-  </si>
-  <si>
-    <t>4.75351</t>
-  </si>
-  <si>
-    <t>10.24836</t>
-  </si>
-  <si>
-    <t>12.39415</t>
-  </si>
-  <si>
-    <t>9.90307</t>
-  </si>
-  <si>
-    <t>5.97245</t>
-  </si>
-  <si>
-    <t>6.14769</t>
-  </si>
-  <si>
-    <t>6.25997</t>
-  </si>
-  <si>
-    <t>6.91489</t>
-  </si>
-  <si>
-    <t>8.17212</t>
-  </si>
-  <si>
-    <t>7.57329</t>
-  </si>
-  <si>
-    <t>8.424</t>
-  </si>
-  <si>
-    <t>11.19318</t>
-  </si>
-  <si>
-    <t>22.13724</t>
-  </si>
-  <si>
-    <t>12.69396</t>
-  </si>
-  <si>
-    <t>16.15873</t>
-  </si>
-  <si>
-    <t>18.40721</t>
-  </si>
-  <si>
-    <t>19.11614</t>
-  </si>
-  <si>
-    <t>19.4972</t>
-  </si>
-  <si>
-    <t>20.74272</t>
-  </si>
-  <si>
-    <t>26.80208</t>
-  </si>
-  <si>
-    <t>41.76565</t>
-  </si>
-  <si>
-    <t>47.02649</t>
-  </si>
-  <si>
-    <t>36.04977</t>
-  </si>
-  <si>
-    <t>31.94502</t>
-  </si>
-  <si>
-    <t>31.2664</t>
-  </si>
-  <si>
-    <t>29.93347</t>
-  </si>
-  <si>
-    <t>41.55113</t>
-  </si>
-  <si>
-    <t>35.05689</t>
-  </si>
-  <si>
-    <t>31.358</t>
-  </si>
-  <si>
-    <t>31.72223</t>
-  </si>
-  <si>
-    <t>34.74769</t>
-  </si>
-  <si>
-    <t>47.07923</t>
-  </si>
-  <si>
-    <t>50.99459</t>
-  </si>
-  <si>
-    <t>60.3909</t>
-  </si>
-  <si>
-    <t>99.79548</t>
-  </si>
-  <si>
-    <t>83.26177</t>
-  </si>
-  <si>
-    <t>70.92608</t>
-  </si>
-  <si>
-    <t>54.54469</t>
-  </si>
-  <si>
-    <t>61.18641</t>
-  </si>
-  <si>
-    <t>73.31021</t>
-  </si>
-  <si>
-    <t>67.25178</t>
-  </si>
-  <si>
-    <t>54.33011</t>
-  </si>
-  <si>
-    <t>49.91464</t>
-  </si>
-  <si>
-    <t>83.03605</t>
-  </si>
-  <si>
-    <t>85.09579</t>
-  </si>
-  <si>
-    <t>67.85975</t>
-  </si>
-  <si>
-    <t>57.69374</t>
-  </si>
-  <si>
-    <t>48.98237</t>
-  </si>
-  <si>
-    <t>47.5627</t>
-  </si>
-  <si>
-    <t>45.14847</t>
-  </si>
-  <si>
-    <t>58.76942</t>
-  </si>
-  <si>
-    <t>57.95644</t>
-  </si>
-  <si>
-    <t>80.42154</t>
-  </si>
-  <si>
-    <t>76.37202</t>
-  </si>
-  <si>
-    <t>63.31513</t>
-  </si>
-  <si>
-    <t>63.49271</t>
-  </si>
-  <si>
-    <t>65.26242</t>
-  </si>
-  <si>
-    <t>57.2405</t>
-  </si>
-  <si>
-    <t>58.03908</t>
-  </si>
-  <si>
-    <t>46.49476</t>
-  </si>
-  <si>
-    <t>41.536</t>
-  </si>
-  <si>
-    <t>38.54373</t>
-  </si>
-  <si>
-    <t>54.71275</t>
-  </si>
-  <si>
-    <t>48.73359</t>
-  </si>
-  <si>
-    <t>41.73199</t>
-  </si>
-  <si>
-    <t>36.22982</t>
-  </si>
-  <si>
-    <t>34.75213</t>
-  </si>
-  <si>
-    <t>47.85031</t>
-  </si>
-  <si>
-    <t>56.07607</t>
-  </si>
-  <si>
-    <t>41.66362</t>
-  </si>
-  <si>
-    <t>51.94262</t>
-  </si>
-  <si>
-    <t>37.98517</t>
-  </si>
-  <si>
-    <t>39.89049</t>
-  </si>
-  <si>
-    <t>39.82302</t>
-  </si>
-  <si>
-    <t>45.06939</t>
-  </si>
-  <si>
-    <t>44.32429</t>
-  </si>
-  <si>
-    <t>35.0487</t>
-  </si>
-  <si>
-    <t>33.79428</t>
-  </si>
-  <si>
-    <t>48.32308</t>
-  </si>
-  <si>
-    <t>46.78305</t>
-  </si>
-  <si>
-    <t>40.49809</t>
-  </si>
-  <si>
-    <t>영화관</t>
-  </si>
-  <si>
-    <t>51.40832</t>
-  </si>
-  <si>
-    <t>52.21984</t>
-  </si>
-  <si>
-    <t>32.95458</t>
-  </si>
-  <si>
-    <t>31.48413</t>
-  </si>
-  <si>
-    <t>45.31272</t>
-  </si>
-  <si>
-    <t>45.35393</t>
-  </si>
-  <si>
-    <t>67.79444</t>
-  </si>
-  <si>
-    <t>69.20098</t>
-  </si>
-  <si>
-    <t>43.36822</t>
-  </si>
-  <si>
-    <t>38.80216</t>
-  </si>
-  <si>
-    <t>35.31579</t>
-  </si>
-  <si>
-    <t>53.71559</t>
-  </si>
-  <si>
-    <t>59.23393</t>
-  </si>
-  <si>
-    <t>42.63694</t>
-  </si>
-  <si>
-    <t>38.3565</t>
-  </si>
-  <si>
-    <t>33.00758</t>
-  </si>
-  <si>
-    <t>48.44737</t>
-  </si>
-  <si>
-    <t>39.911</t>
-  </si>
-  <si>
-    <t>58.61311</t>
-  </si>
-  <si>
-    <t>68.55695</t>
-  </si>
-  <si>
-    <t>42.92052</t>
-  </si>
-  <si>
-    <t>66.21011</t>
-  </si>
-  <si>
-    <t>46.36167</t>
-  </si>
-  <si>
-    <t>82.39855</t>
-  </si>
-  <si>
-    <t>70.63843</t>
-  </si>
-  <si>
-    <t>55.99913</t>
-  </si>
-  <si>
-    <t>49.11793</t>
-  </si>
-  <si>
-    <t>55.18415</t>
-  </si>
-  <si>
-    <t>47.9596</t>
-  </si>
-  <si>
-    <t>46.24699</t>
-  </si>
-  <si>
-    <t>69.50485</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>58.77065</t>
-  </si>
-  <si>
-    <t>43.34985</t>
-  </si>
-  <si>
-    <t>58.53529</t>
-  </si>
-  <si>
-    <t>69.5662</t>
-  </si>
-  <si>
-    <t>57.25339</t>
-  </si>
-  <si>
-    <t>67.78901</t>
-  </si>
-  <si>
-    <t>39.06566</t>
-  </si>
-  <si>
-    <t>60.04588</t>
-  </si>
-  <si>
-    <t>50.16555</t>
-  </si>
-  <si>
-    <t>61.79662</t>
-  </si>
-  <si>
-    <t>68.7511</t>
-  </si>
-  <si>
-    <t>59.5846</t>
-  </si>
-  <si>
-    <t>39.12443</t>
-  </si>
-  <si>
-    <t>39.17747</t>
-  </si>
-  <si>
-    <t>51.35699</t>
-  </si>
-  <si>
-    <t>61.24149</t>
-  </si>
-  <si>
-    <t>40.87996</t>
-  </si>
-  <si>
-    <t>22.18082</t>
-  </si>
-  <si>
-    <t>12.48398</t>
-  </si>
-  <si>
-    <t>10.08081</t>
-  </si>
-  <si>
-    <t>10.86023</t>
-  </si>
-  <si>
-    <t>14.98588</t>
-  </si>
-  <si>
-    <t>19.91719</t>
-  </si>
-  <si>
-    <t>26.2634</t>
-  </si>
-  <si>
-    <t>14.59944</t>
-  </si>
-  <si>
-    <t>16.93336</t>
-  </si>
-  <si>
-    <t>12.37464</t>
-  </si>
-  <si>
-    <t>8.91179</t>
-  </si>
-  <si>
-    <t>11.52832</t>
-  </si>
-  <si>
-    <t>16.52684</t>
-  </si>
-  <si>
-    <t>15.86127</t>
-  </si>
-  <si>
-    <t>13.95289</t>
-  </si>
-  <si>
-    <t>18.09592</t>
-  </si>
-  <si>
-    <t>18.31141</t>
-  </si>
-  <si>
-    <t>23.99013</t>
-  </si>
-  <si>
-    <t>21.68778</t>
-  </si>
-  <si>
-    <t>17.52853</t>
-  </si>
-  <si>
-    <t>16.66914</t>
-  </si>
-  <si>
-    <t>23.11613</t>
-  </si>
-  <si>
-    <t>32.15167</t>
-  </si>
-  <si>
-    <t>20.36705</t>
-  </si>
-  <si>
-    <t>13.49514</t>
-  </si>
-  <si>
-    <t>12.37626</t>
-  </si>
-  <si>
-    <t>17.78738</t>
-  </si>
-  <si>
-    <t>40.05777</t>
-  </si>
-  <si>
-    <t>39.23982</t>
-  </si>
-  <si>
-    <t>49.04306</t>
-  </si>
-  <si>
-    <t>41.28024</t>
-  </si>
-  <si>
-    <t>27.84054</t>
-  </si>
-  <si>
-    <t>23.78873</t>
-  </si>
-  <si>
-    <t>24.89832</t>
-  </si>
-  <si>
-    <t>62.04802</t>
-  </si>
-  <si>
-    <t>44.36352</t>
-  </si>
-  <si>
-    <t>32.38744</t>
-  </si>
-  <si>
-    <t>33.12239</t>
-  </si>
-  <si>
-    <t>28.70845</t>
-  </si>
-  <si>
-    <t>41.19771</t>
-  </si>
-  <si>
-    <t>40.44679</t>
-  </si>
-  <si>
-    <t>47.6165</t>
-  </si>
-  <si>
-    <t>43.40772</t>
-  </si>
-  <si>
-    <t>24.639</t>
-  </si>
-  <si>
-    <t>22.59522</t>
-  </si>
-  <si>
-    <t>29.82534</t>
-  </si>
-  <si>
-    <t>44.56617</t>
-  </si>
-  <si>
-    <t>26.15865</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -633,6 +634,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -653,18 +662,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -677,6 +693,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -978,804 +998,807 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>1</v>
+      <c r="G8" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{5CBA0929-60DD-4FAE-B115-4B80B31B196E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>